--- a/QLTRASUA/Hóa đơn.xlsx
+++ b/QLTRASUA/Hóa đơn.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Hóa Đơn</t>
   </si>
   <si>
-    <t>HD002</t>
-  </si>
-  <si>
-    <t>02/04/2024</t>
+    <t>HD007</t>
+  </si>
+  <si>
+    <t>01/02/2024</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
@@ -35,10 +35,13 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Trà Matcha</t>
-  </si>
-  <si>
     <t>Sting vàng</t>
+  </si>
+  <si>
+    <t>Sting dâu</t>
+  </si>
+  <si>
+    <t>Hạt dẻ</t>
   </si>
   <si>
     <t/>
@@ -159,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -171,7 +175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,10 +222,10 @@
         <v>1.0</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>10000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>10000.0</v>
+        <v>9000.0</v>
       </c>
     </row>
     <row r="5">
@@ -229,26 +233,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n" s="3">
         <v>9000.0</v>
       </c>
       <c r="D5" t="n" s="3">
-        <v>18000.0</v>
+        <v>9000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="B6" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="D6" t="n" s="4">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D6" t="n" s="4">
+      <c r="B7" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n" s="5">
         <v>28000.0</v>
       </c>
     </row>
